--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acc6d451ef995329/Desktop/"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>TC_ID</t>
   </si>
@@ -83,12 +83,16 @@
   </si>
   <si>
     <t>Industry_Type</t>
+  </si>
+  <si>
+    <t>CHAITRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -438,9 +442,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.1796875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.1796875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7265625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -538,6 +542,9 @@
         <v>13</v>
       </c>
       <c r="E8" s="2"/>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -575,9 +582,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.6328125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.7265625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
